--- a/data/schema.xlsx
+++ b/data/schema.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.2.11\ortak\650.PLANLAMA\651.HUSNU\00.PLANLAMA\2024.11.06 - Yeni Uzun Kod Sistemi\ChatGPT\v6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.2.11\ortak\650.PLANLAMA\651.HUSNU\00.PLANLAMA\2024.11.06 - Yeni Uzun Kod Sistemi\ChatGPT\v7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3E9DBD-724E-4EC1-98F0-7602CAA46BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D622443-A23F-4E6D-B3F1-489D469586D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-7430" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="171">
   <si>
     <t>Kategori1</t>
   </si>
@@ -425,18 +425,12 @@
     <t>Allen-Bradley</t>
   </si>
   <si>
-    <t>___</t>
-  </si>
-  <si>
     <t>Yok</t>
   </si>
   <si>
     <t>XXX</t>
   </si>
   <si>
-    <t>UYFdeBelirtilen</t>
-  </si>
-  <si>
     <t>Acici_Tipi_opts</t>
   </si>
   <si>
@@ -489,13 +483,79 @@
   </si>
   <si>
     <t>Otomatik Dönüş Sistemi</t>
+  </si>
+  <si>
+    <t>Tambur_opts</t>
+  </si>
+  <si>
+    <t>500 kg kapasiteli tambur</t>
+  </si>
+  <si>
+    <t>1250 kg kapasiteli tambur</t>
+  </si>
+  <si>
+    <t>2500 kg kapasiteli tambur</t>
+  </si>
+  <si>
+    <t>4000 kg kapasiteli tambur</t>
+  </si>
+  <si>
+    <t>Listede Olmayan Elektrik Altyapısı</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>Sac_genislik</t>
+  </si>
+  <si>
+    <t>Rulo Genişliği</t>
+  </si>
+  <si>
+    <t>Sac_genislik_opts</t>
+  </si>
+  <si>
+    <t>Elk_altyapi_harici</t>
+  </si>
+  <si>
+    <t>Elk_altyapi_harici_opts</t>
+  </si>
+  <si>
+    <t>Sac_genislik_harici</t>
+  </si>
+  <si>
+    <t>Sac_genislik_harici_opts</t>
+  </si>
+  <si>
+    <t>Min_sac_genislik</t>
+  </si>
+  <si>
+    <t>Minimum Sac Genişliği</t>
+  </si>
+  <si>
+    <t>Min_sac_genislik_opts</t>
+  </si>
+  <si>
+    <t>300 mm rulo genişliği</t>
+  </si>
+  <si>
+    <t>400 mm rulo genişliği</t>
+  </si>
+  <si>
+    <t>600 mm rulo genişliği</t>
+  </si>
+  <si>
+    <t>800 mm rulo genişliği</t>
+  </si>
+  <si>
+    <t>1000 mm rulo genişliği</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -507,6 +567,12 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -854,7 +920,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1335,8 +1401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2230,16 +2296,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" customWidth="1"/>
     <col min="7" max="13" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2303,33 +2372,33 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>159</v>
       </c>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>154</v>
       </c>
       <c r="D3" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="E3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="D4" t="s">
         <v>121</v>
@@ -2338,7 +2407,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -2346,10 +2415,10 @@
         <v>87</v>
       </c>
       <c r="B5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D5" t="s">
         <v>121</v>
@@ -2358,7 +2427,107 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>143</v>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D9" t="s">
+        <v>155</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D10" t="s">
+        <v>155</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -2369,10 +2538,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2444,10 +2613,10 @@
         <v>122</v>
       </c>
       <c r="B5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" t="s">
         <v>129</v>
-      </c>
-      <c r="C5" t="s">
-        <v>132</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -2455,27 +2624,21 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B6" t="s">
-        <v>131</v>
-      </c>
-      <c r="C6" t="s">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" t="s">
         <v>134</v>
-      </c>
-      <c r="C7" t="s">
-        <v>136</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -2483,13 +2646,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" t="s">
         <v>133</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>135</v>
-      </c>
-      <c r="C8" t="s">
-        <v>137</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -2497,13 +2660,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -2511,13 +2674,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -2525,13 +2688,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" t="s">
         <v>143</v>
       </c>
-      <c r="B11" t="s">
-        <v>145</v>
-      </c>
       <c r="C11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -2539,19 +2702,162 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D12">
         <v>2</v>
       </c>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B13">
+        <v>500</v>
+      </c>
+      <c r="C13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>149</v>
+      </c>
+      <c r="B14">
+        <v>1250</v>
+      </c>
+      <c r="C14" t="s">
+        <v>151</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15">
+        <v>2500</v>
+      </c>
+      <c r="C15" t="s">
+        <v>152</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>149</v>
+      </c>
+      <c r="B16">
+        <v>4000</v>
+      </c>
+      <c r="C16" t="s">
+        <v>153</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>158</v>
+      </c>
+      <c r="B17">
+        <v>300</v>
+      </c>
+      <c r="C17" t="s">
+        <v>166</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>158</v>
+      </c>
+      <c r="B18">
+        <v>400</v>
+      </c>
+      <c r="C18" t="s">
+        <v>167</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>158</v>
+      </c>
+      <c r="B19">
+        <v>600</v>
+      </c>
+      <c r="C19" t="s">
+        <v>168</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>158</v>
+      </c>
+      <c r="B20">
+        <v>800</v>
+      </c>
+      <c r="C20" t="s">
+        <v>169</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>158</v>
+      </c>
+      <c r="B21">
+        <v>1000</v>
+      </c>
+      <c r="C21" t="s">
+        <v>170</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>162</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>165</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/schema.xlsx
+++ b/data/schema.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.2.11\ortak\650.PLANLAMA\651.HUSNU\00.PLANLAMA\2024.11.06 - Yeni Uzun Kod Sistemi\ChatGPT\v7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D622443-A23F-4E6D-B3F1-489D469586D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4993D2D9-1ACF-4053-8C35-5708E232EC23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-7430" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-7430" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="237">
   <si>
     <t>Kategori1</t>
   </si>
@@ -500,9 +500,6 @@
     <t>4000 kg kapasiteli tambur</t>
   </si>
   <si>
-    <t>Listede Olmayan Elektrik Altyapısı</t>
-  </si>
-  <si>
     <t>text</t>
   </si>
   <si>
@@ -530,9 +527,6 @@
     <t>Min_sac_genislik</t>
   </si>
   <si>
-    <t>Minimum Sac Genişliği</t>
-  </si>
-  <si>
     <t>Min_sac_genislik_opts</t>
   </si>
   <si>
@@ -549,6 +543,210 @@
   </si>
   <si>
     <t>1000 mm rulo genişliği</t>
+  </si>
+  <si>
+    <t>Diğer</t>
+  </si>
+  <si>
+    <t>Lütfen aşağıdaki alana değer giriniz</t>
+  </si>
+  <si>
+    <t>Lütfen aşağıdaki alana talep edilen altyapıyı giriniz</t>
+  </si>
+  <si>
+    <t>Rulo Dış Çapı</t>
+  </si>
+  <si>
+    <t>Discap_opts</t>
+  </si>
+  <si>
+    <t>Discap_harici</t>
+  </si>
+  <si>
+    <t>Listede Olmayan Elektrik Altyapısı (belirtiniz...)</t>
+  </si>
+  <si>
+    <t>Listede Olmayan Rulo Genişliği (belirtiniz...)</t>
+  </si>
+  <si>
+    <t>Listede Olmayan Rulo Dış Çapı (Başında D harfi olacak şekilde belirtiniz...)</t>
+  </si>
+  <si>
+    <t>Discap_harici_opts</t>
+  </si>
+  <si>
+    <t>D1200</t>
+  </si>
+  <si>
+    <t>D1300</t>
+  </si>
+  <si>
+    <t>D1600</t>
+  </si>
+  <si>
+    <t>D1800</t>
+  </si>
+  <si>
+    <t>D2000</t>
+  </si>
+  <si>
+    <t>1200 mm rulo dış çapı</t>
+  </si>
+  <si>
+    <t>1300 mm rulo dış çapı</t>
+  </si>
+  <si>
+    <t>1600 mm rulo dış çapı</t>
+  </si>
+  <si>
+    <t>1800 mm rulo dış çapı</t>
+  </si>
+  <si>
+    <t>2000 mm rulo dış çapı</t>
+  </si>
+  <si>
+    <t>Minimum Sac Genişliği (Değer giriniz…)</t>
+  </si>
+  <si>
+    <t>Acici_Baski_Tipi_opts</t>
+  </si>
+  <si>
+    <t>Ust_Baski_Motor_Tipi</t>
+  </si>
+  <si>
+    <t>Üst Baskı Motor Tipi</t>
+  </si>
+  <si>
+    <t>Alt_Baski_Motor_Tipi</t>
+  </si>
+  <si>
+    <t>Alt Baskı Motor Tipi</t>
+  </si>
+  <si>
+    <t>Ust_Baski_Motor_Tipi_opts</t>
+  </si>
+  <si>
+    <t>Alt_Baski_Motor_Tipi_opts</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>2P3</t>
+  </si>
+  <si>
+    <t>2P4</t>
+  </si>
+  <si>
+    <t>P2 Tipi Baskı Kolu</t>
+  </si>
+  <si>
+    <t>Baskı Kolu Yok</t>
+  </si>
+  <si>
+    <t>P3 Tipi Baskı Kolu</t>
+  </si>
+  <si>
+    <t>P4 Tipi Baskı Kolu</t>
+  </si>
+  <si>
+    <t>2P3 Tipi Baskı Kolu</t>
+  </si>
+  <si>
+    <t>2P4 Tipi Baskı Kolu</t>
+  </si>
+  <si>
+    <t>UB</t>
+  </si>
+  <si>
+    <t>Motorsuz Üst Baskı Kolu</t>
+  </si>
+  <si>
+    <t>UBM</t>
+  </si>
+  <si>
+    <t>Motorlu Üst Baskı Kolu</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>ABM</t>
+  </si>
+  <si>
+    <t>Motorsuz Alt Baskı Kolu</t>
+  </si>
+  <si>
+    <t>Motorlu Alt Baskı Kolu</t>
+  </si>
+  <si>
+    <t>Açıcı Tahrik Tipi</t>
+  </si>
+  <si>
+    <t>Tahrik_opts</t>
+  </si>
+  <si>
+    <t>MK</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>BF</t>
+  </si>
+  <si>
+    <t>PF</t>
+  </si>
+  <si>
+    <t>2PF</t>
+  </si>
+  <si>
+    <t>3PF</t>
+  </si>
+  <si>
+    <t>4PF</t>
+  </si>
+  <si>
+    <t>Açıcı tahrik yok</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Motorlu (Sonsuz Vida + Kayış)</t>
+  </si>
+  <si>
+    <t>Draw-Off (Konik Dişli + Manyetik Fren + Zincir)</t>
+  </si>
+  <si>
+    <t>Kavrama</t>
+  </si>
+  <si>
+    <t>multiselect</t>
+  </si>
+  <si>
+    <t>Pnömatik Fren</t>
+  </si>
+  <si>
+    <t>Balatalı Manuel Fren</t>
+  </si>
+  <si>
+    <t>2 Pnömatik Fren</t>
+  </si>
+  <si>
+    <t>3 Pnömatik Fren</t>
+  </si>
+  <si>
+    <t>4 Pnömatik Fren</t>
   </si>
 </sst>
 </file>
@@ -1401,8 +1599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2296,17 +2494,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="13.28515625" customWidth="1"/>
     <col min="6" max="6" width="30.7109375" customWidth="1"/>
     <col min="7" max="13" width="13.28515625" customWidth="1"/>
@@ -2375,19 +2573,19 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" t="s">
         <v>154</v>
-      </c>
-      <c r="D3" t="s">
-        <v>155</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -2475,10 +2673,10 @@
         <v>89</v>
       </c>
       <c r="B8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8" t="s">
         <v>156</v>
-      </c>
-      <c r="C8" t="s">
-        <v>157</v>
       </c>
       <c r="D8" t="s">
         <v>121</v>
@@ -2487,7 +2685,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -2495,19 +2693,19 @@
         <v>89</v>
       </c>
       <c r="B9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C9" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="D9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -2515,19 +2713,139 @@
         <v>89</v>
       </c>
       <c r="B10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C10" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="D10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>165</v>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" t="s">
+        <v>177</v>
+      </c>
+      <c r="D12" t="s">
+        <v>154</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" t="s">
+        <v>191</v>
+      </c>
+      <c r="C14" t="s">
+        <v>192</v>
+      </c>
+      <c r="D14" t="s">
+        <v>121</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" t="s">
+        <v>193</v>
+      </c>
+      <c r="C15" t="s">
+        <v>194</v>
+      </c>
+      <c r="D15" t="s">
+        <v>121</v>
+      </c>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" t="s">
+        <v>217</v>
+      </c>
+      <c r="D16" t="s">
+        <v>231</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -2538,17 +2856,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2613,10 +2931,10 @@
         <v>122</v>
       </c>
       <c r="B5" t="s">
-        <v>130</v>
+        <v>169</v>
       </c>
       <c r="C5" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -2624,21 +2942,21 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>160</v>
+        <v>122</v>
+      </c>
+      <c r="B6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" t="s">
+        <v>129</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>131</v>
-      </c>
-      <c r="B7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C7" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -2649,27 +2967,27 @@
         <v>131</v>
       </c>
       <c r="B8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C9" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2677,27 +2995,27 @@
         <v>138</v>
       </c>
       <c r="B10" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="C10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B11" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="C11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2705,27 +3023,27 @@
         <v>141</v>
       </c>
       <c r="B12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>149</v>
-      </c>
-      <c r="B13">
-        <v>500</v>
+        <v>141</v>
+      </c>
+      <c r="B13" t="s">
+        <v>144</v>
       </c>
       <c r="C13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2733,13 +3051,13 @@
         <v>149</v>
       </c>
       <c r="B14">
-        <v>1250</v>
+        <v>500</v>
       </c>
       <c r="C14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2747,13 +3065,13 @@
         <v>149</v>
       </c>
       <c r="B15">
-        <v>2500</v>
+        <v>1250</v>
       </c>
       <c r="C15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2761,103 +3079,490 @@
         <v>149</v>
       </c>
       <c r="B16">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="C16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D16">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="B17">
-        <v>300</v>
+        <v>4000</v>
       </c>
       <c r="C17" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B18">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="C18" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B19">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="C19" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B20">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="C20" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D20">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B21">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="C21" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D21">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>162</v>
+        <v>157</v>
+      </c>
+      <c r="B22">
+        <v>1000</v>
+      </c>
+      <c r="C22" t="s">
+        <v>168</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>165</v>
+        <v>157</v>
+      </c>
+      <c r="B23" t="s">
+        <v>169</v>
+      </c>
+      <c r="C23" t="s">
+        <v>170</v>
       </c>
       <c r="D23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>161</v>
+      </c>
+      <c r="D24">
         <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>163</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>173</v>
+      </c>
+      <c r="B26" t="s">
+        <v>179</v>
+      </c>
+      <c r="C26" t="s">
+        <v>184</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>173</v>
+      </c>
+      <c r="B27" t="s">
+        <v>180</v>
+      </c>
+      <c r="C27" t="s">
+        <v>185</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>173</v>
+      </c>
+      <c r="B28" t="s">
+        <v>181</v>
+      </c>
+      <c r="C28" t="s">
+        <v>186</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>173</v>
+      </c>
+      <c r="B29" t="s">
+        <v>182</v>
+      </c>
+      <c r="C29" t="s">
+        <v>187</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>173</v>
+      </c>
+      <c r="B30" t="s">
+        <v>183</v>
+      </c>
+      <c r="C30" t="s">
+        <v>188</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>173</v>
+      </c>
+      <c r="B31" t="s">
+        <v>169</v>
+      </c>
+      <c r="C31" t="s">
+        <v>170</v>
+      </c>
+      <c r="D31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>178</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>190</v>
+      </c>
+      <c r="B33" t="s">
+        <v>197</v>
+      </c>
+      <c r="C33" t="s">
+        <v>204</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>190</v>
+      </c>
+      <c r="B34" t="s">
+        <v>198</v>
+      </c>
+      <c r="C34" t="s">
+        <v>203</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>190</v>
+      </c>
+      <c r="B35" t="s">
+        <v>199</v>
+      </c>
+      <c r="C35" t="s">
+        <v>205</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>190</v>
+      </c>
+      <c r="B36" t="s">
+        <v>200</v>
+      </c>
+      <c r="C36" t="s">
+        <v>206</v>
+      </c>
+      <c r="D36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>190</v>
+      </c>
+      <c r="B37" t="s">
+        <v>201</v>
+      </c>
+      <c r="C37" t="s">
+        <v>207</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>190</v>
+      </c>
+      <c r="B38" t="s">
+        <v>202</v>
+      </c>
+      <c r="C38" t="s">
+        <v>208</v>
+      </c>
+      <c r="D38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>195</v>
+      </c>
+      <c r="B39" t="s">
+        <v>209</v>
+      </c>
+      <c r="C39" t="s">
+        <v>210</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>195</v>
+      </c>
+      <c r="B40" t="s">
+        <v>211</v>
+      </c>
+      <c r="C40" t="s">
+        <v>212</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>196</v>
+      </c>
+      <c r="B41" t="s">
+        <v>213</v>
+      </c>
+      <c r="C41" t="s">
+        <v>215</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>196</v>
+      </c>
+      <c r="B42" t="s">
+        <v>214</v>
+      </c>
+      <c r="C42" t="s">
+        <v>216</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>218</v>
+      </c>
+      <c r="B43" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" t="s">
+        <v>226</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>218</v>
+      </c>
+      <c r="B44" t="s">
+        <v>227</v>
+      </c>
+      <c r="C44" t="s">
+        <v>228</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>218</v>
+      </c>
+      <c r="B45" t="s">
+        <v>219</v>
+      </c>
+      <c r="C45" t="s">
+        <v>229</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>218</v>
+      </c>
+      <c r="B46" t="s">
+        <v>220</v>
+      </c>
+      <c r="C46" t="s">
+        <v>230</v>
+      </c>
+      <c r="D46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>218</v>
+      </c>
+      <c r="B47" t="s">
+        <v>221</v>
+      </c>
+      <c r="C47" t="s">
+        <v>233</v>
+      </c>
+      <c r="D47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>218</v>
+      </c>
+      <c r="B48" t="s">
+        <v>222</v>
+      </c>
+      <c r="C48" t="s">
+        <v>232</v>
+      </c>
+      <c r="D48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>218</v>
+      </c>
+      <c r="B49" t="s">
+        <v>223</v>
+      </c>
+      <c r="C49" t="s">
+        <v>234</v>
+      </c>
+      <c r="D49">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>218</v>
+      </c>
+      <c r="B50" t="s">
+        <v>224</v>
+      </c>
+      <c r="C50" t="s">
+        <v>235</v>
+      </c>
+      <c r="D50">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>218</v>
+      </c>
+      <c r="B51" t="s">
+        <v>225</v>
+      </c>
+      <c r="C51" t="s">
+        <v>236</v>
+      </c>
+      <c r="D51">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/schema.xlsx
+++ b/data/schema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.2.11\ortak\650.PLANLAMA\651.HUSNU\00.PLANLAMA\2024.11.06 - Yeni Uzun Kod Sistemi\ChatGPT\v7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4993D2D9-1ACF-4053-8C35-5708E232EC23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9AEE1D-4A6B-4BC2-BDA7-320F7FAF8E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38510" yWindow="-7430" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="297">
   <si>
     <t>Kategori1</t>
   </si>
@@ -293,9 +293,6 @@
     <t>Hidrolik Ünite</t>
   </si>
   <si>
-    <t>Sensör</t>
-  </si>
-  <si>
     <t>Yön</t>
   </si>
   <si>
@@ -747,6 +744,189 @@
   </si>
   <si>
     <t>4 Pnömatik Fren</t>
+  </si>
+  <si>
+    <t>Tambur_Hiz_opts</t>
+  </si>
+  <si>
+    <t>VR08</t>
+  </si>
+  <si>
+    <t>VR12</t>
+  </si>
+  <si>
+    <t>VR16</t>
+  </si>
+  <si>
+    <t>VR24</t>
+  </si>
+  <si>
+    <t>VR32</t>
+  </si>
+  <si>
+    <t>VR40</t>
+  </si>
+  <si>
+    <t>VR48</t>
+  </si>
+  <si>
+    <t>VR56</t>
+  </si>
+  <si>
+    <t>VR64</t>
+  </si>
+  <si>
+    <t>VRF</t>
+  </si>
+  <si>
+    <t>8 dev/dk</t>
+  </si>
+  <si>
+    <t>12 dev/dk</t>
+  </si>
+  <si>
+    <t>16 dev/dk</t>
+  </si>
+  <si>
+    <t>24 dev/dk</t>
+  </si>
+  <si>
+    <t>32 dev/dk</t>
+  </si>
+  <si>
+    <t>40 dev/dk</t>
+  </si>
+  <si>
+    <t>48 dev/dk</t>
+  </si>
+  <si>
+    <t>56 dev/dk</t>
+  </si>
+  <si>
+    <t>64 dev/dk</t>
+  </si>
+  <si>
+    <t>Tamburda Hiç Tahrik Yok</t>
+  </si>
+  <si>
+    <t>Frenli Tambur</t>
+  </si>
+  <si>
+    <t>Rulo Merkezleme</t>
+  </si>
+  <si>
+    <t>Merkezleme_opts</t>
+  </si>
+  <si>
+    <t>MDA</t>
+  </si>
+  <si>
+    <t>Manuel Dayama Ayağı</t>
+  </si>
+  <si>
+    <t>Yükleme_Arabasi_opts</t>
+  </si>
+  <si>
+    <t>Yükleme_Arabasi_Strok</t>
+  </si>
+  <si>
+    <t>Yükleme Arabası Z Ekseni Stroku</t>
+  </si>
+  <si>
+    <t>Yükleme_Arabasi_Strok_opts</t>
+  </si>
+  <si>
+    <t>YA-4T</t>
+  </si>
+  <si>
+    <t>Yükleme Arabası Yok</t>
+  </si>
+  <si>
+    <t>4 ton taşıma kapasiteli yükleme arabası</t>
+  </si>
+  <si>
+    <t>300 mm dikey strok</t>
+  </si>
+  <si>
+    <t>500 mm dikey strok</t>
+  </si>
+  <si>
+    <t>Hidrolik_Unite_opts</t>
+  </si>
+  <si>
+    <t>HGU-40/1</t>
+  </si>
+  <si>
+    <t>HGU-100/1</t>
+  </si>
+  <si>
+    <t>40 lt kapasiteli hidrolik ünite</t>
+  </si>
+  <si>
+    <t>100 lt kapasiteli hidrolik ünite</t>
+  </si>
+  <si>
+    <t>Hidrolik ünite yok</t>
+  </si>
+  <si>
+    <t>Sensor_opts</t>
+  </si>
+  <si>
+    <t>LSW</t>
+  </si>
+  <si>
+    <t>LCY</t>
+  </si>
+  <si>
+    <t>LAS</t>
+  </si>
+  <si>
+    <t>LAT</t>
+  </si>
+  <si>
+    <t>Switch kolu ile loop kontrolü</t>
+  </si>
+  <si>
+    <t>Cisimden yansımalı sensör</t>
+  </si>
+  <si>
+    <t>Loop Kontrol Sistemi Tipi</t>
+  </si>
+  <si>
+    <t>Analog Sensör</t>
+  </si>
+  <si>
+    <t>Analog Sensör - Ters Profil Montajlı</t>
+  </si>
+  <si>
+    <t>Loop Kontrolü Yok</t>
+  </si>
+  <si>
+    <t>Yon_opts</t>
+  </si>
+  <si>
+    <t>RL</t>
+  </si>
+  <si>
+    <t>LR</t>
+  </si>
+  <si>
+    <t>XX</t>
+  </si>
+  <si>
+    <t>__</t>
+  </si>
+  <si>
+    <t>Hat Yönü Sağdan Sola</t>
+  </si>
+  <si>
+    <t>Hat Yönü Soldan Sağa</t>
+  </si>
+  <si>
+    <t>Hat Yönü Yok / Önemsiz</t>
+  </si>
+  <si>
+    <t>Daha Sonra Belirtilecek</t>
   </si>
 </sst>
 </file>
@@ -1141,7 +1321,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1600,7 +1780,7 @@
   <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D15" sqref="D15:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1609,7 +1789,7 @@
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1647,7 +1827,7 @@
         <v>79</v>
       </c>
       <c r="E2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1664,10 +1844,10 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -1684,7 +1864,7 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E4" t="s">
         <v>80</v>
@@ -1707,7 +1887,7 @@
         <v>81</v>
       </c>
       <c r="E5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -1724,10 +1904,10 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -1744,10 +1924,10 @@
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F7">
         <v>6</v>
@@ -1764,10 +1944,10 @@
         <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F8">
         <v>7</v>
@@ -1804,10 +1984,10 @@
         <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F10">
         <v>9</v>
@@ -1844,10 +2024,10 @@
         <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F12">
         <v>11</v>
@@ -1864,7 +2044,7 @@
         <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E13" t="s">
         <v>84</v>
@@ -1884,10 +2064,10 @@
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E14" t="s">
-        <v>85</v>
+        <v>284</v>
       </c>
       <c r="F14">
         <v>13</v>
@@ -1904,10 +2084,10 @@
         <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F15">
         <v>14</v>
@@ -1927,7 +2107,7 @@
         <v>79</v>
       </c>
       <c r="E16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -1944,10 +2124,10 @@
         <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -1967,7 +2147,7 @@
         <v>81</v>
       </c>
       <c r="E18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F18">
         <v>3</v>
@@ -1984,10 +2164,10 @@
         <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F19">
         <v>4</v>
@@ -2004,10 +2184,10 @@
         <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F20">
         <v>5</v>
@@ -2024,10 +2204,10 @@
         <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F21">
         <v>6</v>
@@ -2044,10 +2224,10 @@
         <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F22">
         <v>7</v>
@@ -2064,10 +2244,10 @@
         <v>24</v>
       </c>
       <c r="D23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F23">
         <v>8</v>
@@ -2084,10 +2264,10 @@
         <v>24</v>
       </c>
       <c r="D24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F24">
         <v>9</v>
@@ -2107,7 +2287,7 @@
         <v>79</v>
       </c>
       <c r="E25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -2124,10 +2304,10 @@
         <v>26</v>
       </c>
       <c r="D26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F26">
         <v>2</v>
@@ -2144,10 +2324,10 @@
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F27">
         <v>3</v>
@@ -2164,10 +2344,10 @@
         <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F28">
         <v>4</v>
@@ -2184,10 +2364,10 @@
         <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F29">
         <v>5</v>
@@ -2204,10 +2384,10 @@
         <v>26</v>
       </c>
       <c r="D30" t="s">
+        <v>115</v>
+      </c>
+      <c r="E30" t="s">
         <v>116</v>
-      </c>
-      <c r="E30" t="s">
-        <v>117</v>
       </c>
       <c r="F30">
         <v>6</v>
@@ -2224,10 +2404,10 @@
         <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F31">
         <v>7</v>
@@ -2494,10 +2674,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2553,19 +2733,19 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" t="s">
         <v>119</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>120</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
         <v>121</v>
-      </c>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -2573,79 +2753,79 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" t="s">
         <v>136</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
         <v>137</v>
-      </c>
-      <c r="D5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" t="s">
         <v>139</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
         <v>140</v>
-      </c>
-      <c r="D6" t="s">
-        <v>121</v>
-      </c>
-      <c r="E6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -2656,176 +2836,176 @@
         <v>81</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" t="s">
         <v>155</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
         <v>156</v>
-      </c>
-      <c r="D8" t="s">
-        <v>121</v>
-      </c>
-      <c r="E8" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10" t="s">
+        <v>188</v>
+      </c>
+      <c r="D10" t="s">
+        <v>153</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
         <v>162</v>
-      </c>
-      <c r="C10" t="s">
-        <v>189</v>
-      </c>
-      <c r="D10" t="s">
-        <v>154</v>
-      </c>
-      <c r="E10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
         <v>172</v>
-      </c>
-      <c r="D11" t="s">
-        <v>121</v>
-      </c>
-      <c r="E11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F11" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B14" t="s">
+        <v>190</v>
+      </c>
+      <c r="C14" t="s">
         <v>191</v>
       </c>
-      <c r="C14" t="s">
-        <v>192</v>
-      </c>
       <c r="D14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B15" t="s">
+        <v>192</v>
+      </c>
+      <c r="C15" t="s">
         <v>193</v>
       </c>
-      <c r="C15" t="s">
-        <v>194</v>
-      </c>
       <c r="D15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -2836,16 +3016,156 @@
         <v>82</v>
       </c>
       <c r="C16" t="s">
+        <v>216</v>
+      </c>
+      <c r="D16" t="s">
+        <v>230</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
         <v>217</v>
       </c>
-      <c r="D16" t="s">
-        <v>231</v>
-      </c>
-      <c r="E16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F16" t="s">
-        <v>218</v>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" t="s">
+        <v>120</v>
+      </c>
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" t="s">
+        <v>258</v>
+      </c>
+      <c r="D18" t="s">
+        <v>120</v>
+      </c>
+      <c r="E18" t="b">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" t="s">
+        <v>120</v>
+      </c>
+      <c r="E19" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" t="s">
+        <v>263</v>
+      </c>
+      <c r="C20" t="s">
+        <v>264</v>
+      </c>
+      <c r="D20" t="s">
+        <v>120</v>
+      </c>
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" t="s">
+        <v>120</v>
+      </c>
+      <c r="E21" t="b">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" t="s">
+        <v>284</v>
+      </c>
+      <c r="D22" t="s">
+        <v>120</v>
+      </c>
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" t="s">
+        <v>120</v>
+      </c>
+      <c r="E23" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -2856,10 +3176,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2886,13 +3206,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" t="s">
         <v>122</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>123</v>
-      </c>
-      <c r="C2" t="s">
-        <v>124</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -2900,13 +3220,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" t="s">
         <v>125</v>
-      </c>
-      <c r="C3" t="s">
-        <v>126</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -2914,13 +3234,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" t="s">
         <v>127</v>
-      </c>
-      <c r="C4" t="s">
-        <v>128</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -2928,13 +3248,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -2942,13 +3262,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -2956,7 +3276,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -2964,13 +3284,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" t="s">
         <v>131</v>
       </c>
-      <c r="B8" t="s">
-        <v>132</v>
-      </c>
       <c r="C8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -2978,13 +3298,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -2992,13 +3312,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -3006,13 +3326,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -3020,13 +3340,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -3034,13 +3354,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -3048,13 +3368,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B14">
         <v>500</v>
       </c>
       <c r="C14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -3062,13 +3382,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B15">
         <v>1250</v>
       </c>
       <c r="C15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -3076,13 +3396,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B16">
         <v>2500</v>
       </c>
       <c r="C16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D16">
         <v>3</v>
@@ -3090,13 +3410,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B17">
         <v>4000</v>
       </c>
       <c r="C17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D17">
         <v>4</v>
@@ -3104,13 +3424,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B18">
         <v>300</v>
       </c>
       <c r="C18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -3118,13 +3438,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B19">
         <v>400</v>
       </c>
       <c r="C19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -3132,13 +3452,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B20">
         <v>600</v>
       </c>
       <c r="C20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -3146,13 +3466,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B21">
         <v>800</v>
       </c>
       <c r="C21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D21">
         <v>4</v>
@@ -3160,13 +3480,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B22">
         <v>1000</v>
       </c>
       <c r="C22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D22">
         <v>5</v>
@@ -3174,13 +3494,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B23" t="s">
+        <v>168</v>
+      </c>
+      <c r="C23" t="s">
         <v>169</v>
-      </c>
-      <c r="C23" t="s">
-        <v>170</v>
       </c>
       <c r="D23">
         <v>6</v>
@@ -3188,7 +3508,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -3196,7 +3516,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -3204,13 +3524,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -3218,13 +3538,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B27" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C27" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -3232,13 +3552,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D28">
         <v>3</v>
@@ -3246,13 +3566,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B29" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D29">
         <v>4</v>
@@ -3260,13 +3580,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B30" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C30" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D30">
         <v>5</v>
@@ -3274,13 +3594,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B31" t="s">
+        <v>168</v>
+      </c>
+      <c r="C31" t="s">
         <v>169</v>
-      </c>
-      <c r="C31" t="s">
-        <v>170</v>
       </c>
       <c r="D31">
         <v>6</v>
@@ -3288,7 +3608,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -3296,13 +3616,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B33" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C33" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -3310,13 +3630,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B34" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C34" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -3324,13 +3644,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B35" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C35" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D35">
         <v>3</v>
@@ -3338,13 +3658,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C36" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D36">
         <v>4</v>
@@ -3352,13 +3672,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B37" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C37" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D37">
         <v>5</v>
@@ -3366,13 +3686,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C38" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D38">
         <v>6</v>
@@ -3380,13 +3700,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B39" t="s">
+        <v>208</v>
+      </c>
+      <c r="C39" t="s">
         <v>209</v>
-      </c>
-      <c r="C39" t="s">
-        <v>210</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -3394,13 +3714,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B40" t="s">
+        <v>210</v>
+      </c>
+      <c r="C40" t="s">
         <v>211</v>
-      </c>
-      <c r="C40" t="s">
-        <v>212</v>
       </c>
       <c r="D40">
         <v>2</v>
@@ -3408,13 +3728,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B41" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C41" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -3422,13 +3742,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C42" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -3436,13 +3756,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C43" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -3450,13 +3770,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B44" t="s">
+        <v>226</v>
+      </c>
+      <c r="C44" t="s">
         <v>227</v>
-      </c>
-      <c r="C44" t="s">
-        <v>228</v>
       </c>
       <c r="D44">
         <v>2</v>
@@ -3464,13 +3784,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>217</v>
+      </c>
+      <c r="B45" t="s">
         <v>218</v>
       </c>
-      <c r="B45" t="s">
-        <v>219</v>
-      </c>
       <c r="C45" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D45">
         <v>3</v>
@@ -3478,13 +3798,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B46" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C46" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D46">
         <v>4</v>
@@ -3492,13 +3812,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B47" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C47" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D47">
         <v>5</v>
@@ -3506,13 +3826,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B48" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C48" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D48">
         <v>6</v>
@@ -3520,13 +3840,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B49" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C49" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D49">
         <v>7</v>
@@ -3534,13 +3854,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B50" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C50" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D50">
         <v>8</v>
@@ -3548,16 +3868,408 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B51" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C51" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D51">
         <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>236</v>
+      </c>
+      <c r="B52" t="s">
+        <v>128</v>
+      </c>
+      <c r="C52" t="s">
+        <v>256</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>236</v>
+      </c>
+      <c r="B53" t="s">
+        <v>237</v>
+      </c>
+      <c r="C53" t="s">
+        <v>247</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>236</v>
+      </c>
+      <c r="B54" t="s">
+        <v>238</v>
+      </c>
+      <c r="C54" t="s">
+        <v>248</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>236</v>
+      </c>
+      <c r="B55" t="s">
+        <v>239</v>
+      </c>
+      <c r="C55" t="s">
+        <v>249</v>
+      </c>
+      <c r="D55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>236</v>
+      </c>
+      <c r="B56" t="s">
+        <v>240</v>
+      </c>
+      <c r="C56" t="s">
+        <v>250</v>
+      </c>
+      <c r="D56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>236</v>
+      </c>
+      <c r="B57" t="s">
+        <v>241</v>
+      </c>
+      <c r="C57" t="s">
+        <v>251</v>
+      </c>
+      <c r="D57">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>236</v>
+      </c>
+      <c r="B58" t="s">
+        <v>242</v>
+      </c>
+      <c r="C58" t="s">
+        <v>252</v>
+      </c>
+      <c r="D58">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>236</v>
+      </c>
+      <c r="B59" t="s">
+        <v>243</v>
+      </c>
+      <c r="C59" t="s">
+        <v>253</v>
+      </c>
+      <c r="D59">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>236</v>
+      </c>
+      <c r="B60" t="s">
+        <v>244</v>
+      </c>
+      <c r="C60" t="s">
+        <v>254</v>
+      </c>
+      <c r="D60">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>236</v>
+      </c>
+      <c r="B61" t="s">
+        <v>245</v>
+      </c>
+      <c r="C61" t="s">
+        <v>255</v>
+      </c>
+      <c r="D61">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>236</v>
+      </c>
+      <c r="B62" t="s">
+        <v>246</v>
+      </c>
+      <c r="C62" t="s">
+        <v>257</v>
+      </c>
+      <c r="D62">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>259</v>
+      </c>
+      <c r="B63" t="s">
+        <v>260</v>
+      </c>
+      <c r="C63" t="s">
+        <v>261</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>262</v>
+      </c>
+      <c r="B64" t="s">
+        <v>128</v>
+      </c>
+      <c r="C64" t="s">
+        <v>267</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>262</v>
+      </c>
+      <c r="B65" t="s">
+        <v>266</v>
+      </c>
+      <c r="C65" t="s">
+        <v>268</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>265</v>
+      </c>
+      <c r="B66">
+        <v>300</v>
+      </c>
+      <c r="C66" t="s">
+        <v>269</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>265</v>
+      </c>
+      <c r="B67">
+        <v>500</v>
+      </c>
+      <c r="C67" t="s">
+        <v>270</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>271</v>
+      </c>
+      <c r="B68" t="s">
+        <v>128</v>
+      </c>
+      <c r="C68" t="s">
+        <v>276</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>271</v>
+      </c>
+      <c r="B69" t="s">
+        <v>272</v>
+      </c>
+      <c r="C69" t="s">
+        <v>274</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>271</v>
+      </c>
+      <c r="B70" t="s">
+        <v>273</v>
+      </c>
+      <c r="C70" t="s">
+        <v>275</v>
+      </c>
+      <c r="D70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>277</v>
+      </c>
+      <c r="B71" t="s">
+        <v>278</v>
+      </c>
+      <c r="C71" t="s">
+        <v>282</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>277</v>
+      </c>
+      <c r="B72" t="s">
+        <v>279</v>
+      </c>
+      <c r="C72" t="s">
+        <v>283</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>277</v>
+      </c>
+      <c r="B73" t="s">
+        <v>280</v>
+      </c>
+      <c r="C73" t="s">
+        <v>285</v>
+      </c>
+      <c r="D73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>277</v>
+      </c>
+      <c r="B74" t="s">
+        <v>281</v>
+      </c>
+      <c r="C74" t="s">
+        <v>286</v>
+      </c>
+      <c r="D74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>277</v>
+      </c>
+      <c r="B75" t="s">
+        <v>129</v>
+      </c>
+      <c r="C75" t="s">
+        <v>287</v>
+      </c>
+      <c r="D75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>288</v>
+      </c>
+      <c r="B76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C76" t="s">
+        <v>293</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>288</v>
+      </c>
+      <c r="B77" t="s">
+        <v>290</v>
+      </c>
+      <c r="C77" t="s">
+        <v>294</v>
+      </c>
+      <c r="D77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>288</v>
+      </c>
+      <c r="B78" t="s">
+        <v>291</v>
+      </c>
+      <c r="C78" t="s">
+        <v>295</v>
+      </c>
+      <c r="D78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>288</v>
+      </c>
+      <c r="B79" t="s">
+        <v>292</v>
+      </c>
+      <c r="C79" t="s">
+        <v>296</v>
+      </c>
+      <c r="D79">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
